--- a/format/k7_prov1.xlsx
+++ b/format/k7_prov1.xlsx
@@ -8,19 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\amanbos\format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{637FC665-2F02-4723-A8AA-430F5166E5B2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA280570-C59C-41FD-826D-800EB35974C2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAA6EAD1-553A-4E74-8CCC-A2ECD5CFBA58}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FAA6EAD1-553A-4E74-8CCC-A2ECD5CFBA58}"/>
   </bookViews>
   <sheets>
     <sheet name="K7 TW 3 PROV" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
-    <definedName name="kecamatan">'K7 TW 3 PROV'!$D$7</definedName>
     <definedName name="nama_bendahara">'K7 TW 3 PROV'!$N$36</definedName>
+    <definedName name="nama_kecamatan">'K7 TW 3 PROV'!$D$7</definedName>
     <definedName name="nama_kepsek">'K7 TW 3 PROV'!$D$36</definedName>
     <definedName name="nama_sekolah">'K7 TW 3 PROV'!$D$6</definedName>
     <definedName name="nip_bendahara">'K7 TW 3 PROV'!$N$37</definedName>
@@ -28,6 +25,7 @@
     <definedName name="penerimaan_tw_sekarang">'K7 TW 3 PROV'!$O$15</definedName>
     <definedName name="periode">'K7 TW 3 PROV'!$A$5</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'K7 TW 3 PROV'!$A$1:$O$37</definedName>
+    <definedName name="program_kp">'K7 TW 3 PROV'!$E$16:$N$23</definedName>
     <definedName name="saldo_tw_lalu">'K7 TW 3 PROV'!$O$14</definedName>
     <definedName name="teks_penerimaan_tw">'K7 TW 3 PROV'!$A$15</definedName>
     <definedName name="teks_saldo_tw">'K7 TW 3 PROV'!$A$14</definedName>
@@ -48,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
   <si>
     <t>Formulir BOS-K7a</t>
   </si>
@@ -210,6 +208,9 @@
   </si>
   <si>
     <t>SD NEGERI BATUR 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIP. </t>
   </si>
 </sst>
 </file>
@@ -459,68 +460,11 @@
   <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -530,15 +474,6 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -549,15 +484,6 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -583,15 +509,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -608,12 +525,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -627,20 +538,110 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -658,54 +659,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="PETUNJUK"/>
-      <sheetName val="REKAPITULASI"/>
-      <sheetName val="BELANJA"/>
-      <sheetName val="CEK"/>
-      <sheetName val="LAP REALISASI"/>
-      <sheetName val="SPTJ"/>
-      <sheetName val="SPTMH"/>
-      <sheetName val="K7 TW 3 PROV"/>
-      <sheetName val="K7 TW 3 KAB"/>
-      <sheetName val="BELANJA MODAL"/>
-      <sheetName val="Persediaan"/>
-      <sheetName val="KET. BELANJA"/>
-      <sheetName val="data NPSN"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="50">
-          <cell r="E50">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="E51" t="str">
-            <v xml:space="preserve">NIP. </v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1011,905 +964,821 @@
   </sheetPr>
   <dimension ref="A1:O130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:O5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.26953125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="5.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.26953125" style="1" customWidth="1"/>
-    <col min="5" max="14" width="15.7265625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="15.7265625" style="13" customWidth="1"/>
-    <col min="16" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="5.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.21875" style="1" customWidth="1"/>
+    <col min="5" max="14" width="15.77734375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="15.77734375" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="9.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="M1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="3"/>
-      <c r="O1" s="4"/>
-    </row>
-    <row r="2" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="M2" s="5" t="s">
+    <row r="1" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="M1" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="60"/>
+      <c r="O1" s="61"/>
+    </row>
+    <row r="2" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="M2" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="6"/>
-      <c r="O2" s="7"/>
-    </row>
-    <row r="3" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="M3" s="8" t="s">
+      <c r="N2" s="63"/>
+      <c r="O2" s="64"/>
+    </row>
+    <row r="3" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="M3" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="9"/>
-      <c r="O3" s="10"/>
-    </row>
-    <row r="4" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="11" t="s">
+      <c r="N3" s="66"/>
+      <c r="O3" s="67"/>
+    </row>
+    <row r="4" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-    </row>
-    <row r="5" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="11" t="s">
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
+    </row>
+    <row r="5" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-    </row>
-    <row r="6" spans="1:15" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+    </row>
+    <row r="6" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="68" t="s">
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="37" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A7" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="68" t="s">
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="37" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="67" t="s">
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="36" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A9" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="67" t="s">
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="36" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="D10" s="14"/>
-    </row>
-    <row r="11" spans="1:15" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="15" t="s">
+    <row r="10" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="18" t="s">
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-    </row>
-    <row r="12" spans="1:15" s="20" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="21"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="24" t="s">
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="55"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="55"/>
+    </row>
+    <row r="12" spans="1:15" s="4" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="51"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="F12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="25" t="s">
+      <c r="G12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="25" t="s">
+      <c r="H12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="25" t="s">
+      <c r="I12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="25" t="s">
+      <c r="J12" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="25" t="s">
+      <c r="K12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L12" s="25" t="s">
+      <c r="L12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="M12" s="25" t="s">
+      <c r="M12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="N12" s="25" t="s">
+      <c r="N12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="O12" s="26" t="s">
+      <c r="O12" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="33" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="30" t="s">
+    <row r="13" spans="1:15" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A13" s="56"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="31" t="s">
+      <c r="F13" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="31" t="s">
+      <c r="G13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="31" t="s">
+      <c r="H13" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I13" s="31" t="s">
+      <c r="I13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J13" s="31" t="s">
+      <c r="J13" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K13" s="31" t="s">
+      <c r="K13" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="L13" s="31" t="s">
+      <c r="L13" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="M13" s="31" t="s">
+      <c r="M13" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="N13" s="31" t="s">
+      <c r="N13" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="O13" s="32"/>
-    </row>
-    <row r="14" spans="1:15" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="34" t="s">
+      <c r="O13" s="10"/>
+    </row>
+    <row r="14" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="38">
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="13">
         <v>11650000</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="34" t="s">
+    <row r="15" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="38">
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="13">
         <v>12640000</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="39" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="41">
+    <row r="16" spans="1:15" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="16">
         <v>1</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="43"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="45">
-        <f>SUMIFS([1]BELANJA!$E$11:$E$1010,[1]BELANJA!$F$11:$F$1010,"Program 1",[1]BELANJA!$G$11:$G$1010,"KP.1")</f>
-        <v>0</v>
-      </c>
-      <c r="F16" s="45">
-        <f>SUMIFS([1]BELANJA!$E$11:$E$1010,[1]BELANJA!$F$11:$F$1010,"Program 1",[1]BELANJA!$G$11:$G$1010,"KP.2")</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="45">
-        <f>SUMIFS([1]BELANJA!$E$11:$E$1010,[1]BELANJA!$F$11:$F$1010,"Program 1",[1]BELANJA!$G$11:$G$1010,"KP.3")</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="45">
-        <f>SUMIFS([1]BELANJA!$E$11:$E$1010,[1]BELANJA!$F$11:$F$1010,"Program 1",[1]BELANJA!$G$11:$G$1010,"KP.4")</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="45">
-        <f>SUMIFS([1]BELANJA!$E$11:$E$1010,[1]BELANJA!$F$11:$F$1010,"Program 1",[1]BELANJA!$G$11:$G$1010,"KP.5")</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="45">
-        <f>SUMIFS([1]BELANJA!$E$11:$E$1010,[1]BELANJA!$F$11:$F$1010,"Program 1",[1]BELANJA!$G$11:$G$1010,"KP.6")</f>
-        <v>0</v>
-      </c>
-      <c r="K16" s="45">
-        <f>SUMIFS([1]BELANJA!$E$11:$E$1010,[1]BELANJA!$F$11:$F$1010,"Program 1",[1]BELANJA!$G$11:$G$1010,"KP.7")</f>
-        <v>0</v>
-      </c>
-      <c r="L16" s="45">
-        <f>SUMIFS([1]BELANJA!$E$11:$E$1010,[1]BELANJA!$F$11:$F$1010,"Program 1",[1]BELANJA!$G$11:$G$1010,"KP.8")</f>
-        <v>0</v>
-      </c>
-      <c r="M16" s="45">
-        <f>SUMIFS([1]BELANJA!$E$11:$E$1010,[1]BELANJA!$F$11:$F$1010,"Program 1",[1]BELANJA!$G$11:$G$1010,"KP.9")</f>
-        <v>0</v>
-      </c>
-      <c r="N16" s="45">
-        <f>SUMIFS([1]BELANJA!$E$11:$E$1010,[1]BELANJA!$F$11:$F$1010,"Program 1",[1]BELANJA!$G$11:$G$1010,"KP.10")</f>
-        <v>0</v>
-      </c>
-      <c r="O16" s="38">
+      <c r="C16" s="18"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="20">
+        <v>0</v>
+      </c>
+      <c r="F16" s="20">
+        <v>0</v>
+      </c>
+      <c r="G16" s="20">
+        <v>0</v>
+      </c>
+      <c r="H16" s="20">
+        <v>0</v>
+      </c>
+      <c r="I16" s="20">
+        <v>0</v>
+      </c>
+      <c r="J16" s="20">
+        <v>0</v>
+      </c>
+      <c r="K16" s="20">
+        <v>0</v>
+      </c>
+      <c r="L16" s="20">
+        <v>0</v>
+      </c>
+      <c r="M16" s="20">
+        <v>0</v>
+      </c>
+      <c r="N16" s="20">
+        <v>0</v>
+      </c>
+      <c r="O16" s="13">
         <f t="shared" ref="O16:O23" si="0">SUM(E16:N16)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="39" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="41">
+    <row r="17" spans="1:15" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="16">
         <v>2</v>
       </c>
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="43"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="45">
-        <f>SUMIFS([1]BELANJA!$E$11:$E$1010,[1]BELANJA!$F$11:$F$1010,"Program 2",[1]BELANJA!$G$11:$G$1010,"KP.1")</f>
-        <v>0</v>
-      </c>
-      <c r="F17" s="45">
-        <f>SUMIFS([1]BELANJA!$E$11:$E$1010,[1]BELANJA!$F$11:$F$1010,"Program 2",[1]BELANJA!$G$11:$G$1010,"KP.2")</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="45">
-        <f>SUMIFS([1]BELANJA!$E$11:$E$1010,[1]BELANJA!$F$11:$F$1010,"Program 2",[1]BELANJA!$G$11:$G$1010,"KP.3")</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="45">
-        <f>SUMIFS([1]BELANJA!$E$11:$E$1010,[1]BELANJA!$F$11:$F$1010,"Program 2",[1]BELANJA!$G$11:$G$1010,"KP.4")</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="45">
-        <f>SUMIFS([1]BELANJA!$E$11:$E$1010,[1]BELANJA!$F$11:$F$1010,"Program 2",[1]BELANJA!$G$11:$G$1010,"KP.5")</f>
-        <v>0</v>
-      </c>
-      <c r="J17" s="45">
-        <f>SUMIFS([1]BELANJA!$E$11:$E$1010,[1]BELANJA!$F$11:$F$1010,"Program 2",[1]BELANJA!$G$11:$G$1010,"KP.6")</f>
-        <v>0</v>
-      </c>
-      <c r="K17" s="45">
-        <f>SUMIFS([1]BELANJA!$E$11:$E$1010,[1]BELANJA!$F$11:$F$1010,"Program 2",[1]BELANJA!$G$11:$G$1010,"KP.7")</f>
-        <v>0</v>
-      </c>
-      <c r="L17" s="45">
-        <f>SUMIFS([1]BELANJA!$E$11:$E$1010,[1]BELANJA!$F$11:$F$1010,"Program 2",[1]BELANJA!$G$11:$G$1010,"KP.8")</f>
-        <v>0</v>
-      </c>
-      <c r="M17" s="45">
-        <f>SUMIFS([1]BELANJA!$E$11:$E$1010,[1]BELANJA!$F$11:$F$1010,"Program 2",[1]BELANJA!$G$11:$G$1010,"KP.9")</f>
-        <v>0</v>
-      </c>
-      <c r="N17" s="45">
-        <f>SUMIFS([1]BELANJA!$E$11:$E$1010,[1]BELANJA!$F$11:$F$1010,"Program 2",[1]BELANJA!$G$11:$G$1010,"KP.10")</f>
-        <v>0</v>
-      </c>
-      <c r="O17" s="38">
+      <c r="C17" s="18"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="20">
+        <v>0</v>
+      </c>
+      <c r="F17" s="20">
+        <v>0</v>
+      </c>
+      <c r="G17" s="20">
+        <v>0</v>
+      </c>
+      <c r="H17" s="20">
+        <v>0</v>
+      </c>
+      <c r="I17" s="20">
+        <v>0</v>
+      </c>
+      <c r="J17" s="20">
+        <v>0</v>
+      </c>
+      <c r="K17" s="20">
+        <v>0</v>
+      </c>
+      <c r="L17" s="20">
+        <v>0</v>
+      </c>
+      <c r="M17" s="20">
+        <v>0</v>
+      </c>
+      <c r="N17" s="20">
+        <v>0</v>
+      </c>
+      <c r="O17" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="39" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="41">
+    <row r="18" spans="1:15" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="16">
         <v>3</v>
       </c>
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="45">
-        <f>SUMIFS([1]BELANJA!$E$11:$E$1010,[1]BELANJA!$F$11:$F$1010,"Program 3",[1]BELANJA!$G$11:$G$1010,"KP.1")</f>
-        <v>0</v>
-      </c>
-      <c r="F18" s="45">
-        <f>SUMIFS([1]BELANJA!$E$11:$E$1010,[1]BELANJA!$F$11:$F$1010,"Program 3",[1]BELANJA!$G$11:$G$1010,"KP.2")</f>
-        <v>0</v>
-      </c>
-      <c r="G18" s="45">
-        <f>SUMIFS([1]BELANJA!$E$11:$E$1010,[1]BELANJA!$F$11:$F$1010,"Program 3",[1]BELANJA!$G$11:$G$1010,"KP.3")</f>
-        <v>0</v>
-      </c>
-      <c r="H18" s="45">
-        <f>SUMIFS([1]BELANJA!$E$11:$E$1010,[1]BELANJA!$F$11:$F$1010,"Program 3",[1]BELANJA!$G$11:$G$1010,"KP.4")</f>
-        <v>0</v>
-      </c>
-      <c r="I18" s="45">
-        <f>SUMIFS([1]BELANJA!$E$11:$E$1010,[1]BELANJA!$F$11:$F$1010,"Program 3",[1]BELANJA!$G$11:$G$1010,"KP.5")</f>
-        <v>0</v>
-      </c>
-      <c r="J18" s="45">
-        <f>SUMIFS([1]BELANJA!$E$11:$E$1010,[1]BELANJA!$F$11:$F$1010,"Program 3",[1]BELANJA!$G$11:$G$1010,"KP.6")</f>
-        <v>0</v>
-      </c>
-      <c r="K18" s="45">
-        <f>SUMIFS([1]BELANJA!$E$11:$E$1010,[1]BELANJA!$F$11:$F$1010,"Program 3",[1]BELANJA!$G$11:$G$1010,"KP.7")</f>
-        <v>0</v>
-      </c>
-      <c r="L18" s="45">
-        <f>SUMIFS([1]BELANJA!$E$11:$E$1010,[1]BELANJA!$F$11:$F$1010,"Program 3",[1]BELANJA!$G$11:$G$1010,"KP.8")</f>
-        <v>0</v>
-      </c>
-      <c r="M18" s="45">
-        <f>SUMIFS([1]BELANJA!$E$11:$E$1010,[1]BELANJA!$F$11:$F$1010,"Program 3",[1]BELANJA!$G$11:$G$1010,"KP.9")</f>
-        <v>0</v>
-      </c>
-      <c r="N18" s="45">
-        <f>SUMIFS([1]BELANJA!$E$11:$E$1010,[1]BELANJA!$F$11:$F$1010,"Program 3",[1]BELANJA!$G$11:$G$1010,"KP.10")</f>
-        <v>0</v>
-      </c>
-      <c r="O18" s="38">
+      <c r="C18" s="22"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="20">
+        <v>0</v>
+      </c>
+      <c r="F18" s="20">
+        <v>0</v>
+      </c>
+      <c r="G18" s="20">
+        <v>0</v>
+      </c>
+      <c r="H18" s="20">
+        <v>0</v>
+      </c>
+      <c r="I18" s="20">
+        <v>0</v>
+      </c>
+      <c r="J18" s="20">
+        <v>0</v>
+      </c>
+      <c r="K18" s="20">
+        <v>0</v>
+      </c>
+      <c r="L18" s="20">
+        <v>0</v>
+      </c>
+      <c r="M18" s="20">
+        <v>0</v>
+      </c>
+      <c r="N18" s="20">
+        <v>0</v>
+      </c>
+      <c r="O18" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="39" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="41">
+    <row r="19" spans="1:15" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="16">
         <v>4</v>
       </c>
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="43"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="45">
-        <f>SUMIFS([1]BELANJA!$E$11:$E$1010,[1]BELANJA!$F$11:$F$1010,"Program 4",[1]BELANJA!$G$11:$G$1010,"KP.1")</f>
-        <v>0</v>
-      </c>
-      <c r="F19" s="45">
-        <f>SUMIFS([1]BELANJA!$E$11:$E$1010,[1]BELANJA!$F$11:$F$1010,"Program 4",[1]BELANJA!$G$11:$G$1010,"KP.2")</f>
-        <v>0</v>
-      </c>
-      <c r="G19" s="45">
-        <f>SUMIFS([1]BELANJA!$E$11:$E$1010,[1]BELANJA!$F$11:$F$1010,"Program 4",[1]BELANJA!$G$11:$G$1010,"KP.3")</f>
-        <v>0</v>
-      </c>
-      <c r="H19" s="45">
-        <f>SUMIFS([1]BELANJA!$E$11:$E$1010,[1]BELANJA!$F$11:$F$1010,"Program 4",[1]BELANJA!$G$11:$G$1010,"KP.4")</f>
-        <v>0</v>
-      </c>
-      <c r="I19" s="45">
-        <f>SUMIFS([1]BELANJA!$E$11:$E$1010,[1]BELANJA!$F$11:$F$1010,"Program 4",[1]BELANJA!$G$11:$G$1010,"KP.5")</f>
-        <v>0</v>
-      </c>
-      <c r="J19" s="45">
-        <f>SUMIFS([1]BELANJA!$E$11:$E$1010,[1]BELANJA!$F$11:$F$1010,"Program 4",[1]BELANJA!$G$11:$G$1010,"KP.6")</f>
-        <v>0</v>
-      </c>
-      <c r="K19" s="45">
-        <f>SUMIFS([1]BELANJA!$E$11:$E$1010,[1]BELANJA!$F$11:$F$1010,"Program 4",[1]BELANJA!$G$11:$G$1010,"KP.7")</f>
-        <v>0</v>
-      </c>
-      <c r="L19" s="45">
-        <f>SUMIFS([1]BELANJA!$E$11:$E$1010,[1]BELANJA!$F$11:$F$1010,"Program 4",[1]BELANJA!$G$11:$G$1010,"KP.8")</f>
-        <v>0</v>
-      </c>
-      <c r="M19" s="45">
-        <f>SUMIFS([1]BELANJA!$E$11:$E$1010,[1]BELANJA!$F$11:$F$1010,"Program 4",[1]BELANJA!$G$11:$G$1010,"KP.9")</f>
-        <v>0</v>
-      </c>
-      <c r="N19" s="45">
-        <f>SUMIFS([1]BELANJA!$E$11:$E$1010,[1]BELANJA!$F$11:$F$1010,"Program 4",[1]BELANJA!$G$11:$G$1010,"KP.10")</f>
-        <v>0</v>
-      </c>
-      <c r="O19" s="38">
+      <c r="C19" s="18"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="20">
+        <v>0</v>
+      </c>
+      <c r="F19" s="20">
+        <v>0</v>
+      </c>
+      <c r="G19" s="20">
+        <v>0</v>
+      </c>
+      <c r="H19" s="20">
+        <v>0</v>
+      </c>
+      <c r="I19" s="20">
+        <v>0</v>
+      </c>
+      <c r="J19" s="20">
+        <v>0</v>
+      </c>
+      <c r="K19" s="20">
+        <v>0</v>
+      </c>
+      <c r="L19" s="20">
+        <v>0</v>
+      </c>
+      <c r="M19" s="20">
+        <v>0</v>
+      </c>
+      <c r="N19" s="20">
+        <v>0</v>
+      </c>
+      <c r="O19" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="39" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="41">
+    <row r="20" spans="1:15" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="16">
         <v>5</v>
       </c>
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="43"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="45">
-        <f>SUMIFS([1]BELANJA!$E$11:$E$1010,[1]BELANJA!$F$11:$F$1010,"Program 5",[1]BELANJA!$G$11:$G$1010,"KP.1")</f>
-        <v>0</v>
-      </c>
-      <c r="F20" s="45">
-        <f>SUMIFS([1]BELANJA!$E$11:$E$1010,[1]BELANJA!$F$11:$F$1010,"Program 5",[1]BELANJA!$G$11:$G$1010,"KP.2")</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="45">
-        <f>SUMIFS([1]BELANJA!$E$11:$E$1010,[1]BELANJA!$F$11:$F$1010,"Program 5",[1]BELANJA!$G$11:$G$1010,"KP.3")</f>
-        <v>0</v>
-      </c>
-      <c r="H20" s="45">
-        <f>SUMIFS([1]BELANJA!$E$11:$E$1010,[1]BELANJA!$F$11:$F$1010,"Program 5",[1]BELANJA!$G$11:$G$1010,"KP.4")</f>
-        <v>0</v>
-      </c>
-      <c r="I20" s="45">
-        <f>SUMIFS([1]BELANJA!$E$11:$E$1010,[1]BELANJA!$F$11:$F$1010,"Program 5",[1]BELANJA!$G$11:$G$1010,"KP.5")</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="45">
-        <f>SUMIFS([1]BELANJA!$E$11:$E$1010,[1]BELANJA!$F$11:$F$1010,"Program 5",[1]BELANJA!$G$11:$G$1010,"KP.6")</f>
-        <v>0</v>
-      </c>
-      <c r="K20" s="45">
-        <f>SUMIFS([1]BELANJA!$E$11:$E$1010,[1]BELANJA!$F$11:$F$1010,"Program 5",[1]BELANJA!$G$11:$G$1010,"KP.7")</f>
-        <v>0</v>
-      </c>
-      <c r="L20" s="45">
-        <f>SUMIFS([1]BELANJA!$E$11:$E$1010,[1]BELANJA!$F$11:$F$1010,"Program 5",[1]BELANJA!$G$11:$G$1010,"KP.8")</f>
-        <v>0</v>
-      </c>
-      <c r="M20" s="45">
-        <f>SUMIFS([1]BELANJA!$E$11:$E$1010,[1]BELANJA!$F$11:$F$1010,"Program 5",[1]BELANJA!$G$11:$G$1010,"KP.9")</f>
-        <v>0</v>
-      </c>
-      <c r="N20" s="45">
-        <f>SUMIFS([1]BELANJA!$E$11:$E$1010,[1]BELANJA!$F$11:$F$1010,"Program 5",[1]BELANJA!$G$11:$G$1010,"KP.10")</f>
-        <v>0</v>
-      </c>
-      <c r="O20" s="38">
+      <c r="C20" s="18"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="20">
+        <v>0</v>
+      </c>
+      <c r="F20" s="20">
+        <v>0</v>
+      </c>
+      <c r="G20" s="20">
+        <v>0</v>
+      </c>
+      <c r="H20" s="20">
+        <v>0</v>
+      </c>
+      <c r="I20" s="20">
+        <v>0</v>
+      </c>
+      <c r="J20" s="20">
+        <v>0</v>
+      </c>
+      <c r="K20" s="20">
+        <v>0</v>
+      </c>
+      <c r="L20" s="20">
+        <v>0</v>
+      </c>
+      <c r="M20" s="20">
+        <v>0</v>
+      </c>
+      <c r="N20" s="20">
+        <v>0</v>
+      </c>
+      <c r="O20" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="39" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="41">
+    <row r="21" spans="1:15" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="16">
         <v>6</v>
       </c>
-      <c r="B21" s="42" t="s">
+      <c r="B21" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="43"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="45">
-        <f>SUMIFS([1]BELANJA!$E$11:$E$1010,[1]BELANJA!$F$11:$F$1010,"Program 6",[1]BELANJA!$G$11:$G$1010,"KP.1")</f>
-        <v>0</v>
-      </c>
-      <c r="F21" s="45">
-        <f>SUMIFS([1]BELANJA!$E$11:$E$1010,[1]BELANJA!$F$11:$F$1010,"Program 6",[1]BELANJA!$G$11:$G$1010,"KP.2")</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="45">
-        <f>SUMIFS([1]BELANJA!$E$11:$E$1010,[1]BELANJA!$F$11:$F$1010,"Program 6",[1]BELANJA!$G$11:$G$1010,"KP.3")</f>
-        <v>0</v>
-      </c>
-      <c r="H21" s="45">
-        <f>SUMIFS([1]BELANJA!$E$11:$E$1010,[1]BELANJA!$F$11:$F$1010,"Program 6",[1]BELANJA!$G$11:$G$1010,"KP.4")</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="45">
-        <f>SUMIFS([1]BELANJA!$E$11:$E$1010,[1]BELANJA!$F$11:$F$1010,"Program 6",[1]BELANJA!$G$11:$G$1010,"KP.5")</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="45">
-        <f>SUMIFS([1]BELANJA!$E$11:$E$1010,[1]BELANJA!$F$11:$F$1010,"Program 6",[1]BELANJA!$G$11:$G$1010,"KP.6")</f>
-        <v>0</v>
-      </c>
-      <c r="K21" s="45">
-        <f>SUMIFS([1]BELANJA!$E$11:$E$1010,[1]BELANJA!$F$11:$F$1010,"Program 6",[1]BELANJA!$G$11:$G$1010,"KP.7")</f>
-        <v>0</v>
-      </c>
-      <c r="L21" s="45">
-        <f>SUMIFS([1]BELANJA!$E$11:$E$1010,[1]BELANJA!$F$11:$F$1010,"Program 6",[1]BELANJA!$G$11:$G$1010,"KP.8")</f>
-        <v>0</v>
-      </c>
-      <c r="M21" s="45">
-        <f>SUMIFS([1]BELANJA!$E$11:$E$1010,[1]BELANJA!$F$11:$F$1010,"Program 6",[1]BELANJA!$G$11:$G$1010,"KP.9")</f>
-        <v>0</v>
-      </c>
-      <c r="N21" s="45">
-        <f>SUMIFS([1]BELANJA!$E$11:$E$1010,[1]BELANJA!$F$11:$F$1010,"Program 6",[1]BELANJA!$G$11:$G$1010,"KP.10")</f>
-        <v>0</v>
-      </c>
-      <c r="O21" s="38">
+      <c r="C21" s="18"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="20">
+        <v>0</v>
+      </c>
+      <c r="F21" s="20">
+        <v>0</v>
+      </c>
+      <c r="G21" s="20">
+        <v>0</v>
+      </c>
+      <c r="H21" s="20">
+        <v>0</v>
+      </c>
+      <c r="I21" s="20">
+        <v>0</v>
+      </c>
+      <c r="J21" s="20">
+        <v>0</v>
+      </c>
+      <c r="K21" s="20">
+        <v>0</v>
+      </c>
+      <c r="L21" s="20">
+        <v>0</v>
+      </c>
+      <c r="M21" s="20">
+        <v>0</v>
+      </c>
+      <c r="N21" s="20">
+        <v>0</v>
+      </c>
+      <c r="O21" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="39" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="41">
+    <row r="22" spans="1:15" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="16">
         <v>7</v>
       </c>
-      <c r="B22" s="42" t="s">
+      <c r="B22" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="43"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="45">
-        <f>SUMIFS([1]BELANJA!$E$11:$E$1010,[1]BELANJA!$F$11:$F$1010,"Program 7",[1]BELANJA!$G$11:$G$1010,"KP.1")</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="45">
-        <f>SUMIFS([1]BELANJA!$E$11:$E$1010,[1]BELANJA!$F$11:$F$1010,"Program 7",[1]BELANJA!$G$11:$G$1010,"KP.2")</f>
-        <v>0</v>
-      </c>
-      <c r="G22" s="45">
-        <f>SUMIFS([1]BELANJA!$E$11:$E$1010,[1]BELANJA!$F$11:$F$1010,"Program 7",[1]BELANJA!$G$11:$G$1010,"KP.3")</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="45">
-        <f>SUMIFS([1]BELANJA!$E$11:$E$1010,[1]BELANJA!$F$11:$F$1010,"Program 7",[1]BELANJA!$G$11:$G$1010,"KP.4")</f>
-        <v>0</v>
-      </c>
-      <c r="I22" s="45">
-        <f>SUMIFS([1]BELANJA!$E$11:$E$1010,[1]BELANJA!$F$11:$F$1010,"Program 7",[1]BELANJA!$G$11:$G$1010,"KP.5")</f>
-        <v>0</v>
-      </c>
-      <c r="J22" s="45">
-        <f>SUMIFS([1]BELANJA!$E$11:$E$1010,[1]BELANJA!$F$11:$F$1010,"Program 7",[1]BELANJA!$G$11:$G$1010,"KP.6")</f>
-        <v>0</v>
-      </c>
-      <c r="K22" s="45">
-        <f>SUMIFS([1]BELANJA!$E$11:$E$1010,[1]BELANJA!$F$11:$F$1010,"Program 7",[1]BELANJA!$G$11:$G$1010,"KP.7")</f>
-        <v>0</v>
-      </c>
-      <c r="L22" s="45">
-        <f>SUMIFS([1]BELANJA!$E$11:$E$1010,[1]BELANJA!$F$11:$F$1010,"Program 7",[1]BELANJA!$G$11:$G$1010,"KP.8")</f>
-        <v>0</v>
-      </c>
-      <c r="M22" s="45">
-        <f>SUMIFS([1]BELANJA!$E$11:$E$1010,[1]BELANJA!$F$11:$F$1010,"Program 7",[1]BELANJA!$G$11:$G$1010,"KP.9")</f>
-        <v>0</v>
-      </c>
-      <c r="N22" s="45">
-        <f>SUMIFS([1]BELANJA!$E$11:$E$1010,[1]BELANJA!$F$11:$F$1010,"Program 7",[1]BELANJA!$G$11:$G$1010,"KP.10")</f>
-        <v>0</v>
-      </c>
-      <c r="O22" s="38">
+      <c r="C22" s="18"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="20">
+        <v>0</v>
+      </c>
+      <c r="F22" s="20">
+        <v>0</v>
+      </c>
+      <c r="G22" s="20">
+        <v>0</v>
+      </c>
+      <c r="H22" s="20">
+        <v>0</v>
+      </c>
+      <c r="I22" s="20">
+        <v>0</v>
+      </c>
+      <c r="J22" s="20">
+        <v>0</v>
+      </c>
+      <c r="K22" s="20">
+        <v>0</v>
+      </c>
+      <c r="L22" s="20">
+        <v>0</v>
+      </c>
+      <c r="M22" s="20">
+        <v>0</v>
+      </c>
+      <c r="N22" s="20">
+        <v>0</v>
+      </c>
+      <c r="O22" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="39" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="41">
+    <row r="23" spans="1:15" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="16">
         <v>8</v>
       </c>
-      <c r="B23" s="42" t="s">
+      <c r="B23" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="43"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="45">
-        <f>SUMIFS([1]BELANJA!$E$11:$E$1010,[1]BELANJA!$F$11:$F$1010,"Program 8",[1]BELANJA!$G$11:$G$1010,"KP.1")</f>
-        <v>0</v>
-      </c>
-      <c r="F23" s="45">
-        <f>SUMIFS([1]BELANJA!$E$11:$E$1010,[1]BELANJA!$F$11:$F$1010,"Program 8",[1]BELANJA!$G$11:$G$1010,"KP.2")</f>
-        <v>0</v>
-      </c>
-      <c r="G23" s="45">
-        <f>SUMIFS([1]BELANJA!$E$11:$E$1010,[1]BELANJA!$F$11:$F$1010,"Program 8",[1]BELANJA!$G$11:$G$1010,"KP.3")</f>
-        <v>0</v>
-      </c>
-      <c r="H23" s="45">
-        <f>SUMIFS([1]BELANJA!$E$11:$E$1010,[1]BELANJA!$F$11:$F$1010,"Program 8",[1]BELANJA!$G$11:$G$1010,"KP.4")</f>
-        <v>0</v>
-      </c>
-      <c r="I23" s="45">
-        <f>SUMIFS([1]BELANJA!$E$11:$E$1010,[1]BELANJA!$F$11:$F$1010,"Program 8",[1]BELANJA!$G$11:$G$1010,"KP.5")</f>
-        <v>0</v>
-      </c>
-      <c r="J23" s="45">
-        <f>SUMIFS([1]BELANJA!$E$11:$E$1010,[1]BELANJA!$F$11:$F$1010,"Program 8",[1]BELANJA!$G$11:$G$1010,"KP.6")</f>
-        <v>0</v>
-      </c>
-      <c r="K23" s="45">
-        <f>SUMIFS([1]BELANJA!$E$11:$E$1010,[1]BELANJA!$F$11:$F$1010,"Program 8",[1]BELANJA!$G$11:$G$1010,"KP.7")</f>
-        <v>0</v>
-      </c>
-      <c r="L23" s="45">
-        <f>SUMIFS([1]BELANJA!$E$11:$E$1010,[1]BELANJA!$F$11:$F$1010,"Program 8",[1]BELANJA!$G$11:$G$1010,"KP.8")</f>
-        <v>0</v>
-      </c>
-      <c r="M23" s="45">
-        <f>SUMIFS([1]BELANJA!$E$11:$E$1010,[1]BELANJA!$F$11:$F$1010,"Program 8",[1]BELANJA!$G$11:$G$1010,"KP.9")</f>
-        <v>0</v>
-      </c>
-      <c r="N23" s="45">
-        <f>SUMIFS([1]BELANJA!$E$11:$E$1010,[1]BELANJA!$F$11:$F$1010,"Program 8",[1]BELANJA!$G$11:$G$1010,"KP.10")</f>
-        <v>0</v>
-      </c>
-      <c r="O23" s="38">
+      <c r="C23" s="18"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="20">
+        <v>0</v>
+      </c>
+      <c r="F23" s="20">
+        <v>0</v>
+      </c>
+      <c r="G23" s="20">
+        <v>0</v>
+      </c>
+      <c r="H23" s="20">
+        <v>0</v>
+      </c>
+      <c r="I23" s="20">
+        <v>0</v>
+      </c>
+      <c r="J23" s="20">
+        <v>0</v>
+      </c>
+      <c r="K23" s="20">
+        <v>0</v>
+      </c>
+      <c r="L23" s="20">
+        <v>0</v>
+      </c>
+      <c r="M23" s="20">
+        <v>0</v>
+      </c>
+      <c r="N23" s="20">
+        <v>0</v>
+      </c>
+      <c r="O23" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="39" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="48" t="s">
+    <row r="24" spans="1:15" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="51">
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="23">
         <f>SUM(E16:E23)</f>
         <v>0</v>
       </c>
-      <c r="F24" s="51">
+      <c r="F24" s="23">
         <f t="shared" ref="F24:O24" si="1">SUM(F16:F23)</f>
         <v>0</v>
       </c>
-      <c r="G24" s="51">
+      <c r="G24" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H24" s="51">
+      <c r="H24" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I24" s="51">
+      <c r="I24" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J24" s="51">
+      <c r="J24" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K24" s="51">
+      <c r="K24" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L24" s="51">
+      <c r="L24" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M24" s="51">
+      <c r="M24" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N24" s="51">
+      <c r="N24" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O24" s="51">
+      <c r="O24" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="39" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="48" t="s">
+    <row r="25" spans="1:15" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="52"/>
-      <c r="M25" s="52"/>
-      <c r="N25" s="52"/>
-      <c r="O25" s="53">
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="25">
         <f>O14+O15-O24</f>
         <v>24290000</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="39" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="54"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="O26" s="55"/>
-    </row>
-    <row r="27" spans="1:15" s="39" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="54"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="56" t="s">
+    <row r="26" spans="1:15" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="O26" s="27"/>
+    </row>
+    <row r="27" spans="1:15" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="E27" s="57">
+      <c r="E27" s="38">
         <f>O14</f>
         <v>11650000</v>
       </c>
-      <c r="F27" s="58"/>
-      <c r="O27" s="55"/>
-    </row>
-    <row r="28" spans="1:15" s="39" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="54"/>
-      <c r="B28" s="54"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="56" t="s">
+      <c r="F27" s="39"/>
+      <c r="O27" s="27"/>
+    </row>
+    <row r="28" spans="1:15" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="E28" s="57">
+      <c r="E28" s="38">
         <f>O15</f>
         <v>12640000</v>
       </c>
-      <c r="F28" s="58"/>
-      <c r="O28" s="55"/>
-    </row>
-    <row r="29" spans="1:15" s="39" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="54"/>
-      <c r="B29" s="54"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="56" t="s">
+      <c r="F28" s="39"/>
+      <c r="O28" s="27"/>
+    </row>
+    <row r="29" spans="1:15" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="E29" s="57">
+      <c r="E29" s="38">
         <f>O25</f>
         <v>24290000</v>
       </c>
-      <c r="F29" s="58"/>
-      <c r="O29" s="55"/>
-    </row>
-    <row r="30" spans="1:15" s="39" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="54"/>
-      <c r="B30" s="54"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="O30" s="55"/>
-    </row>
-    <row r="31" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="D31" s="59" t="s">
+      <c r="F29" s="39"/>
+      <c r="O29" s="27"/>
+    </row>
+    <row r="30" spans="1:15" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="26"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="O30" s="27"/>
+    </row>
+    <row r="31" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D31" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="F31" s="60"/>
-      <c r="G31" s="60"/>
-      <c r="I31" s="61"/>
-      <c r="M31" s="61"/>
-      <c r="N31" s="60"/>
-    </row>
-    <row r="32" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="D32" s="59" t="s">
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="I31" s="31"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="30"/>
+    </row>
+    <row r="32" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D32" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="F32" s="60"/>
-      <c r="G32" s="60"/>
-      <c r="I32" s="61"/>
-      <c r="M32" s="61"/>
-      <c r="N32" s="59" t="s">
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="I32" s="31"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="29" t="s">
         <v>51</v>
       </c>
       <c r="O32" s="1"/>
     </row>
-    <row r="33" spans="4:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="D33" s="62"/>
-      <c r="F33" s="60"/>
-      <c r="G33" s="60"/>
-      <c r="I33" s="61"/>
-      <c r="M33" s="61"/>
-      <c r="N33" s="59"/>
+    <row r="33" spans="4:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D33" s="32"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="I33" s="31"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="29"/>
       <c r="O33" s="1"/>
     </row>
-    <row r="34" spans="4:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="D34" s="62"/>
-      <c r="F34" s="60"/>
-      <c r="G34" s="60"/>
-      <c r="I34" s="61"/>
-      <c r="M34" s="61"/>
-      <c r="N34" s="59"/>
+    <row r="34" spans="4:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D34" s="32"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="I34" s="31"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="29"/>
       <c r="O34" s="1"/>
     </row>
-    <row r="35" spans="4:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="D35" s="62"/>
-      <c r="F35" s="60"/>
-      <c r="G35" s="60"/>
-      <c r="I35" s="61"/>
-      <c r="M35" s="61"/>
-      <c r="N35" s="59"/>
+    <row r="35" spans="4:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D35" s="32"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="I35" s="31"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="29"/>
       <c r="O35" s="1"/>
     </row>
-    <row r="36" spans="4:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="D36" s="63">
-        <f>[1]REKAPITULASI!E50</f>
-        <v>0</v>
-      </c>
-      <c r="E36" s="60"/>
-      <c r="F36" s="60"/>
-      <c r="G36" s="60"/>
-      <c r="I36" s="64"/>
-      <c r="J36" s="64"/>
-      <c r="M36" s="61"/>
-      <c r="N36" s="63">
-        <f>[1]REKAPITULASI!C9</f>
+    <row r="36" spans="4:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D36" s="33">
+        <v>0</v>
+      </c>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="40"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="33">
         <v>0</v>
       </c>
       <c r="O36" s="1"/>
     </row>
-    <row r="37" spans="4:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="D37" s="65" t="str">
-        <f>[1]REKAPITULASI!E51</f>
-        <v xml:space="preserve">NIP. </v>
-      </c>
-      <c r="E37" s="60"/>
-      <c r="F37" s="60"/>
-      <c r="G37" s="60"/>
-      <c r="I37" s="64"/>
-      <c r="J37" s="64"/>
-      <c r="M37" s="61"/>
-      <c r="N37" s="66" t="str">
-        <f>"NIP. "&amp;[1]REKAPITULASI!C10</f>
-        <v xml:space="preserve">NIP. </v>
+    <row r="37" spans="4:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D37" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="I37" s="40"/>
+      <c r="J37" s="40"/>
+      <c r="M37" s="31"/>
+      <c r="N37" s="35" t="s">
+        <v>54</v>
       </c>
       <c r="O37" s="1"/>
     </row>
@@ -2193,8 +2062,20 @@
       <c r="O130" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
   <mergeCells count="21">
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="A4:O4"/>
+    <mergeCell ref="A5:O5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A11:D12"/>
+    <mergeCell ref="E11:O11"/>
     <mergeCell ref="E29:F29"/>
     <mergeCell ref="I36:J36"/>
     <mergeCell ref="I37:J37"/>
@@ -2204,18 +2085,6 @@
     <mergeCell ref="A25:D25"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="E28:F28"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A11:D12"/>
-    <mergeCell ref="E11:O11"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="A4:O4"/>
-    <mergeCell ref="A5:O5"/>
-    <mergeCell ref="A6:C6"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0.19685039370078741" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="14" scale="64" fitToHeight="6" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
